--- a/suffix_data/Suffix_Veloz.xlsx
+++ b/suffix_data/Suffix_Veloz.xlsx
@@ -688,7 +688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
